--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H2">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I2">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J2">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N2">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O2">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P2">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q2">
-        <v>15.79825468448</v>
+        <v>33.17330469324725</v>
       </c>
       <c r="R2">
-        <v>63.19301873792</v>
+        <v>132.693218772989</v>
       </c>
       <c r="S2">
-        <v>0.002452735292011131</v>
+        <v>0.005681502688910785</v>
       </c>
       <c r="T2">
-        <v>0.001390049019506782</v>
+        <v>0.003181838507705547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H3">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I3">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J3">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.059622</v>
       </c>
       <c r="O3">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P3">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q3">
-        <v>14.26060289283</v>
+        <v>35.614830247017</v>
       </c>
       <c r="R3">
-        <v>85.56361735698</v>
+        <v>213.688981482102</v>
       </c>
       <c r="S3">
-        <v>0.002214009376299117</v>
+        <v>0.006099656205030357</v>
       </c>
       <c r="T3">
-        <v>0.001882132311257242</v>
+        <v>0.005124028463845923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H4">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I4">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J4">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N4">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O4">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P4">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q4">
-        <v>71.96760734149666</v>
+        <v>87.32267999698615</v>
       </c>
       <c r="R4">
-        <v>431.80564404898</v>
+        <v>523.9360799819169</v>
       </c>
       <c r="S4">
-        <v>0.01117322729209428</v>
+        <v>0.01495552058480214</v>
       </c>
       <c r="T4">
-        <v>0.009498375360371902</v>
+        <v>0.01256341514870319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H5">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I5">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J5">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N5">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O5">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P5">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q5">
-        <v>16.462052742755</v>
+        <v>33.61313569086275</v>
       </c>
       <c r="R5">
-        <v>65.84821097101999</v>
+        <v>134.452542763451</v>
       </c>
       <c r="S5">
-        <v>0.002555792304118867</v>
+        <v>0.005756831361128583</v>
       </c>
       <c r="T5">
-        <v>0.001448454954749878</v>
+        <v>0.003224025176113667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H6">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I6">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J6">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N6">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O6">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P6">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q6">
-        <v>12.20148334227</v>
+        <v>348.2091183097216</v>
       </c>
       <c r="R6">
-        <v>73.20890005362</v>
+        <v>2089.25470985833</v>
       </c>
       <c r="S6">
-        <v>0.001894323734245876</v>
+        <v>0.05963683932830032</v>
       </c>
       <c r="T6">
-        <v>0.001610367122367575</v>
+        <v>0.05009804683090265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H7">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I7">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J7">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N7">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O7">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P7">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q7">
-        <v>105.64198479063</v>
+        <v>103.8287352301427</v>
       </c>
       <c r="R7">
-        <v>633.85190874378</v>
+        <v>622.972411380856</v>
       </c>
       <c r="S7">
-        <v>0.01640129429414943</v>
+        <v>0.01778246827836667</v>
       </c>
       <c r="T7">
-        <v>0.01394276206230807</v>
+        <v>0.0149381982447869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J8">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N8">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O8">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P8">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q8">
-        <v>159.0564474726613</v>
+        <v>133.7327923841198</v>
       </c>
       <c r="R8">
-        <v>954.3386848359681</v>
+        <v>802.396754304719</v>
       </c>
       <c r="S8">
-        <v>0.02469407981638397</v>
+        <v>0.02290405573251765</v>
       </c>
       <c r="T8">
-        <v>0.02099247004855609</v>
+        <v>0.01924059808717527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J9">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.059622</v>
       </c>
       <c r="O9">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P9">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q9">
         <v>143.575406287138</v>
@@ -1013,10 +1013,10 @@
         <v>1292.178656584242</v>
       </c>
       <c r="S9">
-        <v>0.02229059304957592</v>
+        <v>0.0245897737480427</v>
       </c>
       <c r="T9">
-        <v>0.02842389413396836</v>
+        <v>0.03098503334513956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J10">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N10">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O10">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P10">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q10">
-        <v>724.5681365101158</v>
+        <v>352.0272080954007</v>
       </c>
       <c r="R10">
-        <v>6521.113228591043</v>
+        <v>3168.244872858607</v>
       </c>
       <c r="S10">
-        <v>0.112491783135448</v>
+        <v>0.06029075329871804</v>
       </c>
       <c r="T10">
-        <v>0.1434441213686835</v>
+        <v>0.07597105286554577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J11">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N11">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O11">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P11">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q11">
-        <v>165.7395503278264</v>
+        <v>135.5058996470868</v>
       </c>
       <c r="R11">
-        <v>994.4373019669581</v>
+        <v>813.035397882521</v>
       </c>
       <c r="S11">
-        <v>0.02573165533091892</v>
+        <v>0.02320773104540636</v>
       </c>
       <c r="T11">
-        <v>0.02187451437148481</v>
+        <v>0.01949570114457804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>33.082211</v>
       </c>
       <c r="I12">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J12">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N12">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O12">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P12">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q12">
-        <v>122.844240270722</v>
+        <v>1403.748530807381</v>
       </c>
       <c r="R12">
-        <v>1105.598162436498</v>
+        <v>12633.73677726643</v>
       </c>
       <c r="S12">
-        <v>0.01907200570885165</v>
+        <v>0.2404162360694854</v>
       </c>
       <c r="T12">
-        <v>0.02431970607444887</v>
+        <v>0.302943214022817</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>33.082211</v>
       </c>
       <c r="I13">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J13">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N13">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O13">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P13">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q13">
-        <v>1063.600957216218</v>
+        <v>418.5686901089751</v>
       </c>
       <c r="R13">
-        <v>9572.408614945964</v>
+        <v>3767.118210980776</v>
       </c>
       <c r="S13">
-        <v>0.1651278357313623</v>
+        <v>0.07168713398735013</v>
       </c>
       <c r="T13">
-        <v>0.2105630886966847</v>
+        <v>0.09033138164568663</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H14">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I14">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J14">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N14">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O14">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P14">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q14">
-        <v>4.240830747562667</v>
+        <v>4.051873217347667</v>
       </c>
       <c r="R14">
-        <v>25.444984485376</v>
+        <v>24.311239304086</v>
       </c>
       <c r="S14">
-        <v>0.0006584040737241267</v>
+        <v>0.0006939534300956292</v>
       </c>
       <c r="T14">
-        <v>0.0005597101775110798</v>
+        <v>0.000582956974765403</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H15">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I15">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J15">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.059622</v>
       </c>
       <c r="O15">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P15">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q15">
-        <v>3.828068633816</v>
+        <v>4.350087461972001</v>
       </c>
       <c r="R15">
-        <v>34.452617704344</v>
+        <v>39.15078715774801</v>
       </c>
       <c r="S15">
-        <v>0.0005943212858585704</v>
+        <v>0.0007450277818483969</v>
       </c>
       <c r="T15">
-        <v>0.0007578499716556145</v>
+        <v>0.0009387931300289186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H16">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I16">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J16">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N16">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O16">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P16">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q16">
-        <v>19.31874426243822</v>
+        <v>10.66581794061756</v>
       </c>
       <c r="R16">
-        <v>173.868698361944</v>
+        <v>95.99236146555799</v>
       </c>
       <c r="S16">
-        <v>0.002999303834262715</v>
+        <v>0.001826705957377433</v>
       </c>
       <c r="T16">
-        <v>0.00382456825940352</v>
+        <v>0.002301792020579699</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H17">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I17">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J17">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N17">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O17">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P17">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q17">
-        <v>4.419018482342667</v>
+        <v>4.105595312745668</v>
       </c>
       <c r="R17">
-        <v>26.514110894056</v>
+        <v>24.633571876474</v>
       </c>
       <c r="S17">
-        <v>0.0006860683540150233</v>
+        <v>0.0007031542689110575</v>
       </c>
       <c r="T17">
-        <v>0.0005832276189277953</v>
+        <v>0.0005906861579188129</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H18">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I18">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J18">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N18">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O18">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P18">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q18">
-        <v>3.275325455704</v>
+        <v>42.53116213660223</v>
       </c>
       <c r="R18">
-        <v>29.477929101336</v>
+        <v>382.78045922942</v>
       </c>
       <c r="S18">
-        <v>0.0005085059393250353</v>
+        <v>0.007284197769141598</v>
       </c>
       <c r="T18">
-        <v>0.0006484223615640373</v>
+        <v>0.009178657481035543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H19">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I19">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J19">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N19">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O19">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P19">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q19">
-        <v>28.358181728376</v>
+        <v>12.68191020943822</v>
       </c>
       <c r="R19">
-        <v>255.223635555384</v>
+        <v>114.137191884944</v>
       </c>
       <c r="S19">
-        <v>0.004402708687231321</v>
+        <v>0.002171996658810883</v>
       </c>
       <c r="T19">
-        <v>0.005614122753496982</v>
+        <v>0.002736885242961774</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H20">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I20">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J20">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N20">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O20">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P20">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q20">
-        <v>214.637816106048</v>
+        <v>127.8868426628048</v>
       </c>
       <c r="R20">
-        <v>858.551264424192</v>
+        <v>511.547370651219</v>
       </c>
       <c r="S20">
-        <v>0.03332328520318617</v>
+        <v>0.02190283564401529</v>
       </c>
       <c r="T20">
-        <v>0.0188854460056522</v>
+        <v>0.01226634742532071</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H21">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I21">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J21">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.059622</v>
       </c>
       <c r="O21">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P21">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q21">
-        <v>193.747013350758</v>
+        <v>137.299199895207</v>
       </c>
       <c r="R21">
-        <v>1162.482080104548</v>
+        <v>823.795199371242</v>
       </c>
       <c r="S21">
-        <v>0.03007991369033923</v>
+        <v>0.02351486475656156</v>
       </c>
       <c r="T21">
-        <v>0.02557097457782754</v>
+        <v>0.01975370943640078</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H22">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I22">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J22">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N22">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O22">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P22">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q22">
-        <v>977.764340343958</v>
+        <v>336.6388106621844</v>
       </c>
       <c r="R22">
-        <v>5866.586042063747</v>
+        <v>2019.832863973107</v>
       </c>
       <c r="S22">
-        <v>0.1518013953267614</v>
+        <v>0.05765522385107025</v>
       </c>
       <c r="T22">
-        <v>0.1290465677774219</v>
+        <v>0.04843338676344661</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H23">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I23">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J23">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N23">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O23">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P23">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q23">
-        <v>223.656291147063</v>
+        <v>129.5824409190053</v>
       </c>
       <c r="R23">
-        <v>894.625164588252</v>
+        <v>518.329763676021</v>
       </c>
       <c r="S23">
-        <v>0.03472343556504541</v>
+        <v>0.02219323619774356</v>
       </c>
       <c r="T23">
-        <v>0.01967895912710635</v>
+        <v>0.01242898180483356</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H24">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I24">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J24">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N24">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O24">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P24">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q24">
-        <v>165.771459578502</v>
+        <v>1342.385545811905</v>
       </c>
       <c r="R24">
-        <v>994.628757471012</v>
+        <v>8054.313274871429</v>
       </c>
       <c r="S24">
-        <v>0.02573660935570438</v>
+        <v>0.2299067626397141</v>
       </c>
       <c r="T24">
-        <v>0.02187872579453445</v>
+        <v>0.1931336383885098</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H25">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I25">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J25">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N25">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O25">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P25">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q25">
-        <v>1435.270247089038</v>
+        <v>400.271521002796</v>
       </c>
       <c r="R25">
-        <v>8611.621482534227</v>
+        <v>2401.629126016776</v>
       </c>
       <c r="S25">
-        <v>0.2228308163728461</v>
+        <v>0.06855342703721402</v>
       </c>
       <c r="T25">
-        <v>0.1894287729441402</v>
+        <v>0.0575884442705441</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H26">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I26">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J26">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N26">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O26">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P26">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q26">
-        <v>26.14505051624534</v>
+        <v>0.8264966953658334</v>
       </c>
       <c r="R26">
-        <v>156.870303097472</v>
+        <v>4.958980172195</v>
       </c>
       <c r="S26">
-        <v>0.00405911218633576</v>
+        <v>0.0001415518664938053</v>
       </c>
       <c r="T26">
-        <v>0.00345065666058336</v>
+        <v>0.0001189109301646561</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H27">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I27">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J27">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.059622</v>
       </c>
       <c r="O27">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P27">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q27">
-        <v>23.600340067402</v>
+        <v>0.8873261128900001</v>
       </c>
       <c r="R27">
-        <v>212.4030606066181</v>
+        <v>7.985935016010001</v>
       </c>
       <c r="S27">
-        <v>0.003664036828298957</v>
+        <v>0.0001519699572575748</v>
       </c>
       <c r="T27">
-        <v>0.004672203861014462</v>
+        <v>0.0001914940023984645</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H28">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I28">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J28">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N28">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O28">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P28">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q28">
-        <v>119.1015569159798</v>
+        <v>2.175601952092777</v>
       </c>
       <c r="R28">
-        <v>1071.914012243818</v>
+        <v>19.580417568835</v>
       </c>
       <c r="S28">
-        <v>0.0184909407915974</v>
+        <v>0.0003726094959520511</v>
       </c>
       <c r="T28">
-        <v>0.02357875998762809</v>
+        <v>0.0004695170348083797</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H29">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I29">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J29">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N29">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O29">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P29">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q29">
-        <v>27.24359172303034</v>
+        <v>0.8374548700008333</v>
       </c>
       <c r="R29">
-        <v>163.461550338182</v>
+        <v>5.024729220005</v>
       </c>
       <c r="S29">
-        <v>0.004229664620223096</v>
+        <v>0.000143428643596057</v>
       </c>
       <c r="T29">
-        <v>0.003595643511144715</v>
+        <v>0.0001204875205443404</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H30">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I30">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J30">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N30">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O30">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P30">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q30">
-        <v>20.19263549853801</v>
+        <v>8.675460230461111</v>
       </c>
       <c r="R30">
-        <v>181.733719486842</v>
+        <v>78.07914207415</v>
       </c>
       <c r="S30">
-        <v>0.003134978560298551</v>
+        <v>0.00148582274460394</v>
       </c>
       <c r="T30">
-        <v>0.003997574156596151</v>
+        <v>0.00187225257776861</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H31">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I31">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J31">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N31">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O31">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P31">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q31">
-        <v>174.830390074722</v>
+        <v>2.586842262031111</v>
       </c>
       <c r="R31">
-        <v>1573.473510672498</v>
+        <v>23.28158035828</v>
       </c>
       <c r="S31">
-        <v>0.0271430405710324</v>
+        <v>0.0004430415179742271</v>
       </c>
       <c r="T31">
-        <v>0.03461150225788679</v>
+        <v>0.0005582668774577631</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H32">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I32">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J32">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N32">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O32">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P32">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q32">
-        <v>10.69285991364267</v>
+        <v>2.1433936920445</v>
       </c>
       <c r="R32">
-        <v>64.15715948185601</v>
+        <v>12.860362152267</v>
       </c>
       <c r="S32">
-        <v>0.001660104575253321</v>
+        <v>0.0003670932738643953</v>
       </c>
       <c r="T32">
-        <v>0.00141125710423736</v>
+        <v>0.0003083774430788901</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H33">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I33">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J33">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>39.059622</v>
       </c>
       <c r="O33">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P33">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q33">
-        <v>9.652118671496002</v>
+        <v>2.301145550634</v>
       </c>
       <c r="R33">
-        <v>86.86906804346401</v>
+        <v>20.710309955706</v>
       </c>
       <c r="S33">
-        <v>0.001498525791682226</v>
+        <v>0.0003941110104765502</v>
       </c>
       <c r="T33">
-        <v>0.001910848148591859</v>
+        <v>0.0004966106205948549</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H34">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I34">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J34">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N34">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O34">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P34">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q34">
-        <v>48.71041510545156</v>
+        <v>5.642093340072333</v>
       </c>
       <c r="R34">
-        <v>438.393735949064</v>
+        <v>50.77884006065099</v>
       </c>
       <c r="S34">
-        <v>0.007562465386446933</v>
+        <v>0.0009663061542744582</v>
       </c>
       <c r="T34">
-        <v>0.009643292803295659</v>
+        <v>0.00121762114278058</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H35">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I35">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J35">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N35">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O35">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P35">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q35">
-        <v>11.14214369782267</v>
+        <v>2.1718120541755</v>
       </c>
       <c r="R35">
-        <v>66.85286218693601</v>
+        <v>13.030872325053</v>
       </c>
       <c r="S35">
-        <v>0.001729857482494978</v>
+        <v>0.0003719604103271241</v>
       </c>
       <c r="T35">
-        <v>0.001470554143323573</v>
+        <v>0.0003124660908541331</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H36">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I36">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J36">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N36">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O36">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P36">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q36">
-        <v>8.258428207624002</v>
+        <v>22.49848890844333</v>
       </c>
       <c r="R36">
-        <v>74.32585386861601</v>
+        <v>202.48640017599</v>
       </c>
       <c r="S36">
-        <v>0.001282150384705381</v>
+        <v>0.003853255694955538</v>
       </c>
       <c r="T36">
-        <v>0.001634936617327275</v>
+        <v>0.004855402795442546</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H37">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I37">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J37">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N37">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O37">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P37">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q37">
-        <v>71.50251511485601</v>
+        <v>6.708582645085333</v>
       </c>
       <c r="R37">
-        <v>643.5226360337041</v>
+        <v>60.377243805768</v>
       </c>
       <c r="S37">
-        <v>0.01110102006787208</v>
+        <v>0.001148960909661532</v>
       </c>
       <c r="T37">
-        <v>0.01415548785474137</v>
+        <v>0.001447780384760889</v>
       </c>
     </row>
   </sheetData>
